--- a/biology/Zoologie/Faubelidae/Faubelidae.xlsx
+++ b/biology/Zoologie/Faubelidae/Faubelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notocirridae
 Les  Faubelidae (synonyme Notocirridae) sont une famille de vers plats marins, de la super-famille des Leptoplanoidea, du sous-ordre des Acotylea et de l'ordre des Polycladida.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Faubelidae Özdikmen, 2010[1].
-Faubelidae a pour synonyme[1] Notocirridae Faubel, 1983. Le nom Faubelidae a été attribué en l'honneur de Anno Faubel.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Faubelidae Özdikmen, 2010.
+Faubelidae a pour synonyme Notocirridae Faubel, 1983. Le nom Faubelidae a été attribué en l'honneur de Anno Faubel.
 </t>
         </is>
       </c>
@@ -570,9 +586,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la base de données World Register of Marine Species                               (12 novembre 2023)[1], la famille des Faubelidae regroupe les genres suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (12 novembre 2023), la famille des Faubelidae regroupe les genres suivants :
 Amyris Marcus &amp; Marcus, 1968
 Chiliplana Faubel, 1983
 Copidoplana Bock, 1913
